--- a/data/nzd0066/nzd0066.xlsx
+++ b/data/nzd0066/nzd0066.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P287"/>
+  <dimension ref="A1:P291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14600,6 +14600,218 @@
         </is>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>362.2336363636364</v>
+      </c>
+      <c r="C288" t="n">
+        <v>355.09</v>
+      </c>
+      <c r="D288" t="n">
+        <v>358.4</v>
+      </c>
+      <c r="E288" t="n">
+        <v>368.0661538461539</v>
+      </c>
+      <c r="F288" t="n">
+        <v>385.39</v>
+      </c>
+      <c r="G288" t="n">
+        <v>388.42</v>
+      </c>
+      <c r="H288" t="n">
+        <v>396.16</v>
+      </c>
+      <c r="I288" t="n">
+        <v>402.2036842105263</v>
+      </c>
+      <c r="J288" t="n">
+        <v>395.95</v>
+      </c>
+      <c r="K288" t="n">
+        <v>393.1</v>
+      </c>
+      <c r="L288" t="n">
+        <v>386.37</v>
+      </c>
+      <c r="M288" t="n">
+        <v>394.7341176470589</v>
+      </c>
+      <c r="N288" t="n">
+        <v>386.8142857142857</v>
+      </c>
+      <c r="O288" t="n">
+        <v>392.1868965517241</v>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>354.8272727272728</v>
+      </c>
+      <c r="C289" t="n">
+        <v>360.5</v>
+      </c>
+      <c r="D289" t="n">
+        <v>365.28</v>
+      </c>
+      <c r="E289" t="n">
+        <v>370.9407692307692</v>
+      </c>
+      <c r="F289" t="n">
+        <v>396.31</v>
+      </c>
+      <c r="G289" t="n">
+        <v>398.31</v>
+      </c>
+      <c r="H289" t="n">
+        <v>393.65</v>
+      </c>
+      <c r="I289" t="n">
+        <v>401.5652631578947</v>
+      </c>
+      <c r="J289" t="n">
+        <v>409.01</v>
+      </c>
+      <c r="K289" t="n">
+        <v>406.59</v>
+      </c>
+      <c r="L289" t="n">
+        <v>401.82</v>
+      </c>
+      <c r="M289" t="n">
+        <v>394.3111764705882</v>
+      </c>
+      <c r="N289" t="n">
+        <v>394.9671428571429</v>
+      </c>
+      <c r="O289" t="n">
+        <v>394.0486206896552</v>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>361.9236363636364</v>
+      </c>
+      <c r="C290" t="n">
+        <v>365.2933333333333</v>
+      </c>
+      <c r="D290" t="n">
+        <v>361.955</v>
+      </c>
+      <c r="E290" t="n">
+        <v>375.6192307692308</v>
+      </c>
+      <c r="F290" t="n">
+        <v>393.575</v>
+      </c>
+      <c r="G290" t="n">
+        <v>399.44</v>
+      </c>
+      <c r="H290" t="n">
+        <v>402.165</v>
+      </c>
+      <c r="I290" t="n">
+        <v>411.44</v>
+      </c>
+      <c r="J290" t="n">
+        <v>412.5</v>
+      </c>
+      <c r="K290" t="n">
+        <v>409.36</v>
+      </c>
+      <c r="L290" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="M290" t="n">
+        <v>396.0529411764706</v>
+      </c>
+      <c r="N290" t="n">
+        <v>393.3290476190476</v>
+      </c>
+      <c r="O290" t="n">
+        <v>396.1810344827586</v>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="n">
+        <v>365.94</v>
+      </c>
+      <c r="E291" t="n">
+        <v>375.0307692307693</v>
+      </c>
+      <c r="F291" t="n">
+        <v>392.76</v>
+      </c>
+      <c r="G291" t="n">
+        <v>394.51</v>
+      </c>
+      <c r="H291" t="n">
+        <v>398.97</v>
+      </c>
+      <c r="I291" t="n">
+        <v>402.228947368421</v>
+      </c>
+      <c r="J291" t="n">
+        <v>409.06</v>
+      </c>
+      <c r="K291" t="n">
+        <v>404.37</v>
+      </c>
+      <c r="L291" t="n">
+        <v>403.1266666666667</v>
+      </c>
+      <c r="M291" t="n">
+        <v>397.44</v>
+      </c>
+      <c r="N291" t="n">
+        <v>391.0987301587302</v>
+      </c>
+      <c r="O291" t="n">
+        <v>393.9848275862069</v>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14611,7 +14823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17519,6 +17731,46 @@
       </c>
       <c r="B290" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -17687,28 +17939,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02374757414274635</v>
+        <v>-0.04442514552599445</v>
       </c>
       <c r="J2" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K2" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L2" t="n">
-        <v>1.121721347563387e-05</v>
+        <v>4.040033903529583e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>23.17412625456397</v>
+        <v>22.82272019958944</v>
       </c>
       <c r="N2" t="n">
-        <v>2580.367518963563</v>
+        <v>2546.877349492126</v>
       </c>
       <c r="O2" t="n">
-        <v>50.79731802923815</v>
+        <v>50.46659637316674</v>
       </c>
       <c r="P2" t="n">
-        <v>381.2636478312965</v>
+        <v>381.9521722874854</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -17764,28 +18016,28 @@
         <v>0.108</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1690070617065086</v>
+        <v>-0.1800036013429097</v>
       </c>
       <c r="J3" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K3" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03986266767905744</v>
+        <v>0.04547117601204154</v>
       </c>
       <c r="M3" t="n">
-        <v>4.407399515736459</v>
+        <v>4.415748221681515</v>
       </c>
       <c r="N3" t="n">
-        <v>34.4221970191396</v>
+        <v>34.46255078704736</v>
       </c>
       <c r="O3" t="n">
-        <v>5.867043294466098</v>
+        <v>5.870481307954856</v>
       </c>
       <c r="P3" t="n">
-        <v>369.1679623690332</v>
+        <v>369.2802755062104</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17841,28 +18093,28 @@
         <v>0.0898</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3230740820726825</v>
+        <v>0.3024060168565782</v>
       </c>
       <c r="J4" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K4" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1158091785122555</v>
+        <v>0.1040678162089731</v>
       </c>
       <c r="M4" t="n">
-        <v>4.521050784604762</v>
+        <v>4.540394460345648</v>
       </c>
       <c r="N4" t="n">
-        <v>40.28527110468924</v>
+        <v>40.44795579102004</v>
       </c>
       <c r="O4" t="n">
-        <v>6.347067913981166</v>
+        <v>6.359870736974144</v>
       </c>
       <c r="P4" t="n">
-        <v>361.301045137801</v>
+        <v>361.5117927995266</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17918,28 +18170,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2062066016254092</v>
+        <v>0.1935460565357918</v>
       </c>
       <c r="J5" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K5" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05988627773396948</v>
+        <v>0.05426567280638073</v>
       </c>
       <c r="M5" t="n">
-        <v>4.261412932527994</v>
+        <v>4.256460985515472</v>
       </c>
       <c r="N5" t="n">
-        <v>33.52618606958777</v>
+        <v>33.3753010435713</v>
       </c>
       <c r="O5" t="n">
-        <v>5.790180141376239</v>
+        <v>5.777136058945755</v>
       </c>
       <c r="P5" t="n">
-        <v>371.1212105661314</v>
+        <v>371.2493153268485</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -17995,28 +18247,28 @@
         <v>0.091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1533735792930007</v>
+        <v>0.1392123421635386</v>
       </c>
       <c r="J6" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K6" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03584746931469274</v>
+        <v>0.03017863031132939</v>
       </c>
       <c r="M6" t="n">
-        <v>4.321505833839632</v>
+        <v>4.325994627204307</v>
       </c>
       <c r="N6" t="n">
-        <v>32.91965449350431</v>
+        <v>32.95749458044881</v>
       </c>
       <c r="O6" t="n">
-        <v>5.737565206035075</v>
+        <v>5.740861832551695</v>
       </c>
       <c r="P6" t="n">
-        <v>392.5814729735336</v>
+        <v>392.7222592190665</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -18072,28 +18324,28 @@
         <v>0.1211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1497384944189825</v>
+        <v>0.1410300791876342</v>
       </c>
       <c r="J7" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K7" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02912393310166361</v>
+        <v>0.02648755429329885</v>
       </c>
       <c r="M7" t="n">
-        <v>4.370452076704828</v>
+        <v>4.359707556107116</v>
       </c>
       <c r="N7" t="n">
-        <v>39.09733470535795</v>
+        <v>38.87241427304533</v>
       </c>
       <c r="O7" t="n">
-        <v>6.252786155415676</v>
+        <v>6.234774596811446</v>
       </c>
       <c r="P7" t="n">
-        <v>394.1214569569567</v>
+        <v>394.2080350416612</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -18149,28 +18401,28 @@
         <v>0.09569999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4034073557687126</v>
+        <v>0.3895544933190336</v>
       </c>
       <c r="J8" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K8" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1449315900432078</v>
+        <v>0.1393997647020363</v>
       </c>
       <c r="M8" t="n">
-        <v>4.936360960312961</v>
+        <v>4.933069701909102</v>
       </c>
       <c r="N8" t="n">
-        <v>49.2890691351253</v>
+        <v>48.92878355849059</v>
       </c>
       <c r="O8" t="n">
-        <v>7.020617432614121</v>
+        <v>6.994911261659478</v>
       </c>
       <c r="P8" t="n">
-        <v>391.8102303677287</v>
+        <v>391.9492330913714</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -18226,28 +18478,28 @@
         <v>0.111</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3473676691315568</v>
+        <v>0.336658711868299</v>
       </c>
       <c r="J9" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K9" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1057783765616691</v>
+        <v>0.1023509184818906</v>
       </c>
       <c r="M9" t="n">
-        <v>4.829045622604196</v>
+        <v>4.834789424634346</v>
       </c>
       <c r="N9" t="n">
-        <v>51.88178248504163</v>
+        <v>51.47039032409523</v>
       </c>
       <c r="O9" t="n">
-        <v>7.20290097703985</v>
+        <v>7.17428674671533</v>
       </c>
       <c r="P9" t="n">
-        <v>398.8404135318925</v>
+        <v>398.9479483238028</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -18303,28 +18555,28 @@
         <v>0.1229</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2610212846633049</v>
+        <v>0.251194515005314</v>
       </c>
       <c r="J10" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K10" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05919114004280024</v>
+        <v>0.05608839350681627</v>
       </c>
       <c r="M10" t="n">
-        <v>5.322032843276371</v>
+        <v>5.304660304464004</v>
       </c>
       <c r="N10" t="n">
-        <v>54.90001254125443</v>
+        <v>54.80153159979205</v>
       </c>
       <c r="O10" t="n">
-        <v>7.409454267437948</v>
+        <v>7.402805657302645</v>
       </c>
       <c r="P10" t="n">
-        <v>403.0817166621206</v>
+        <v>403.180183126824</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -18380,28 +18632,28 @@
         <v>0.1543</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1062637881417376</v>
+        <v>0.1054430427114563</v>
       </c>
       <c r="J11" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K11" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01063018080869615</v>
+        <v>0.01069148158208877</v>
       </c>
       <c r="M11" t="n">
-        <v>5.467977173091409</v>
+        <v>5.461241510946397</v>
       </c>
       <c r="N11" t="n">
-        <v>53.44173039235752</v>
+        <v>53.19705936674575</v>
       </c>
       <c r="O11" t="n">
-        <v>7.310385105612256</v>
+        <v>7.293631425205537</v>
       </c>
       <c r="P11" t="n">
-        <v>400.9439127148551</v>
+        <v>400.9518721489713</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -18457,28 +18709,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.04663260660742428</v>
+        <v>-0.05090371235201648</v>
       </c>
       <c r="J12" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K12" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002246765318365207</v>
+        <v>0.002719846049546004</v>
       </c>
       <c r="M12" t="n">
-        <v>4.637054823351944</v>
+        <v>4.653337833904297</v>
       </c>
       <c r="N12" t="n">
-        <v>49.12836750432635</v>
+        <v>49.15421833398182</v>
       </c>
       <c r="O12" t="n">
-        <v>7.009163110124229</v>
+        <v>7.011006941515735</v>
       </c>
       <c r="P12" t="n">
-        <v>401.0188271828206</v>
+        <v>401.061525524986</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -18534,28 +18786,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1183823787950274</v>
+        <v>-0.1203048046779826</v>
       </c>
       <c r="J13" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K13" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01927399144895647</v>
+        <v>0.02055188920032602</v>
       </c>
       <c r="M13" t="n">
-        <v>3.986983263776665</v>
+        <v>3.941259288812062</v>
       </c>
       <c r="N13" t="n">
-        <v>35.98676004120958</v>
+        <v>35.42937720639893</v>
       </c>
       <c r="O13" t="n">
-        <v>5.998896568637401</v>
+        <v>5.952258160261443</v>
       </c>
       <c r="P13" t="n">
-        <v>399.231679003277</v>
+        <v>399.2510561368405</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -18605,28 +18857,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.1479088433445904</v>
+        <v>-0.1669750163459913</v>
       </c>
       <c r="J14" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K14" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01741200433981815</v>
+        <v>0.02260035360002466</v>
       </c>
       <c r="M14" t="n">
-        <v>6.169750194133702</v>
+        <v>6.173636024385328</v>
       </c>
       <c r="N14" t="n">
-        <v>62.18746876099009</v>
+        <v>61.8623756861009</v>
       </c>
       <c r="O14" t="n">
-        <v>7.885903167107119</v>
+        <v>7.865263866273076</v>
       </c>
       <c r="P14" t="n">
-        <v>401.1682164637992</v>
+        <v>401.3598156985011</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -18682,28 +18934,28 @@
         <v>0.1911</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1907775179417154</v>
+        <v>-0.197423863475469</v>
       </c>
       <c r="J15" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K15" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05156478375803164</v>
+        <v>0.05667724158656806</v>
       </c>
       <c r="M15" t="n">
-        <v>3.870552068700153</v>
+        <v>3.842737285063333</v>
       </c>
       <c r="N15" t="n">
-        <v>33.84829496215782</v>
+        <v>33.39598819167858</v>
       </c>
       <c r="O15" t="n">
-        <v>5.817928751897691</v>
+        <v>5.778926214417224</v>
       </c>
       <c r="P15" t="n">
-        <v>400.9897853297279</v>
+        <v>401.0566043081174</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -18740,7 +18992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P287"/>
+  <dimension ref="A1:P291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39558,6 +39810,326 @@
         </is>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>-35.27297877951105,174.08017500820552</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>-35.27369651993135,174.08034884244998</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>-35.27440671985608,174.08056577269116</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>-35.275082959218025,174.0809225905841</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>-35.275659820460824,174.08143021220735</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>-35.27613030638027,174.08203776886415</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>-35.27653927820437,174.08275601147082</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>-35.27691481196132,174.0834858766658</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>-35.27731538244279,174.0841850379598</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>-35.277611568617445,174.08496824532352</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>-35.27790852977178,174.08577631928432</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>-35.278046600881645,174.0866468690527</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>-35.27828676578877,174.08748440002947</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>-35.27838612366188,174.08837108848618</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>-35.27299784342317,174.08009697122188</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-35.2736844530173,174.0804064718491</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>-35.27439119573866,174.0806390058416</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-35.27507397020197,174.0809522332386</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>-35.27560482399742,174.0815297934806</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>-35.27606500074059,174.08211180498026</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>-35.27655706053941,174.08273894319404</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>-35.276919630692724,174.08348203759505</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>-35.277209775251265,174.0842485411244</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>-35.277497825390725,174.08502076944956</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>-35.27777591183763,174.08582828578727</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>-35.27805028508456,174.0866456697188</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>-35.27821493903358,174.08750344888784</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>-35.27836965963476,174.08837507347314</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>-35.2729795774492,174.08017174189825</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>-35.27367376154519,174.08045753226304</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>-35.274398698315416,174.08060361337064</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>-35.27505934048488,174.0810004769023</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>-35.27561859830231,174.08150485257923</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>-35.27605753912273,174.08212026410428</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>-35.276496735198144,174.08279684610292</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>-35.27684509725939,174.08354141812666</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>-35.27718155402848,174.08426551093189</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>-35.277474469662394,174.08503155459334</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>-35.277770074931276,174.08583057298233</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>-35.27803511272723,174.08665060883868</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>-35.27822937066972,174.08749962153962</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>-35.278350801782445,174.08837963786453</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>-35.27438970650416,174.08064603111325</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-35.27506118062627,174.08099440876737</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>-35.275622702893116,174.08149742046254</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>-35.27609009290258,174.08208335835718</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>-35.27651937048787,174.08277511977192</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>-35.27691462127779,174.08348602858285</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>-35.277209370935765,174.08424878424492</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>-35.2775165436994,174.08501212575592</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>-35.27776469582148,174.08583268078928</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>-35.27802303018113,174.08665454211828</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>-35.27824901978959,174.08749441048428</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>-35.278370223784606,174.08837493692516</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0066/nzd0066.xlsx
+++ b/data/nzd0066/nzd0066.xlsx
@@ -17784,7 +17784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17875,35 +17875,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17962,27 +17967,28 @@
       <c r="P2" t="n">
         <v>381.9521722874854</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.07635829737384 -35.27391110728343, 174.08612246989316 -35.27152568092673)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.0763582973738</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.27391110728343</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.0861224698932</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.27152568092673</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.0812403836335</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.27271839410508</v>
       </c>
     </row>
@@ -18039,27 +18045,28 @@
       <c r="P3" t="n">
         <v>369.2802755062104</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.07656624842136 -35.274488482777855, 174.08643812336058 -35.27242132573386)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.0765662484214</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.27448848277785</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.0864381233606</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.27242132573386</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.081502185891</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.27345490425586</v>
       </c>
     </row>
@@ -18116,27 +18123,28 @@
       <c r="P4" t="n">
         <v>361.5117927995266</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.07675079630326 -35.275215357385555, 174.08661517769283 -35.27312418559952)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.0767507963033</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.27521535738556</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.0866151776928</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.27312418559952</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.081682986998</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.27416977149254</v>
       </c>
     </row>
@@ -18193,27 +18201,28 @@
       <c r="P5" t="n">
         <v>371.2493153268485</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.07712708546995 -35.276233854928876, 174.08668243926502 -35.27333613547245)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.07712708547</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.27623385492888</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.086682439265</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.27333613547245</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.0819047623675</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.27478499520066</v>
       </c>
     </row>
@@ -18270,27 +18279,28 @@
       <c r="P6" t="n">
         <v>392.7222592190665</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.07791569050303 -35.277600711220025, 174.08636325731933 -35.272935225828334)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.077915690503</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.27760071122002</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.0863632573193</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.27293522582833</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.0821394739112</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.27526796852418</v>
       </c>
     </row>
@@ -18347,27 +18357,28 @@
       <c r="P7" t="n">
         <v>394.2080350416612</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.0791299795153 -35.27869508629243, 174.08606213596656 -35.272580284665835)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.0791299795153</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.27869508629243</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.0860621359666</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.27258028466584</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.0825960577409</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.27563768547913</v>
       </c>
     </row>
@@ -18424,27 +18435,28 @@
       <c r="P8" t="n">
         <v>391.9492330913714</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.08006198789786 -35.279345882820095, 174.08635821351737 -35.27278615147325)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.0800619878979</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.2793458828201</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.0863582135174</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.27278615147325</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.0832101007076</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.27606601714668</v>
       </c>
     </row>
@@ -18501,27 +18513,28 @@
       <c r="P9" t="n">
         <v>398.9479483238028</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.08106718229936 -35.27995057755619, 174.0866342363414 -35.272962818563016)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.0810671822994</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.27995057755619</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.0866342363414</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.27296281856302</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.0838507093204</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.2764566980596</v>
       </c>
     </row>
@@ -18578,27 +18591,28 @@
       <c r="P10" t="n">
         <v>403.180183126824</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.0822596870139 -35.280517141085696, 174.086760454469 -35.27303216474851)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.0822596870139</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.2805171410857</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.086760454469</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.27303216474851</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.0845100707414</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.2767746529171</v>
       </c>
     </row>
@@ -18655,27 +18669,28 @@
       <c r="P11" t="n">
         <v>400.9518721489713</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.08343762392263 -35.28092604826768, 174.08704118590728 -35.273122275304466)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.0834376239226</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.28092604826768</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.0870411859073</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.27312227530447</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.0852394049149</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.27702416178607</v>
       </c>
     </row>
@@ -18732,27 +18747,28 @@
       <c r="P12" t="n">
         <v>401.061525524986</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.08447669965943 -35.28122500096786, 174.0875895420936 -35.273280944477435)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.0844766996594</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.28122500096786</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.0875895420936</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.27328094447743</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.0860331208765</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.27725297272265</v>
       </c>
     </row>
@@ -18809,27 +18825,28 @@
       <c r="P13" t="n">
         <v>399.2510561368405</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.0855274764153 -35.281485089344955, 174.08815171405223 -35.27342364380936)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.0855274764153</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.28148508934495</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.0881517140522</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.27342364380936</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.0868395952338</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.27745436657716</v>
       </c>
     </row>
@@ -18880,27 +18897,28 @@
       <c r="P14" t="n">
         <v>401.3598156985011</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.08658058551293 -35.28169459990406, 174.08874273984028 -35.273541728643224)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.0865805855129</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.28169459990406</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.0887427398403</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.27354172864322</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.0876616626766</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.27761816427364</v>
       </c>
     </row>
@@ -18957,27 +18975,28 @@
       <c r="P15" t="n">
         <v>401.0566043081174</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.08753158545116 -35.281854397772314, 174.08951235545084 -35.273670699986376)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.0875315854512</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.28185439777231</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.0895123554508</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.27367069998638</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.088521970451</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.27776254887934</v>
       </c>
     </row>

--- a/data/nzd0066/nzd0066.xlsx
+++ b/data/nzd0066/nzd0066.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P291"/>
+  <dimension ref="A1:P295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14812,6 +14812,216 @@
         </is>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>365.2990909090909</v>
+      </c>
+      <c r="C292" t="n">
+        <v>358.8777777777778</v>
+      </c>
+      <c r="D292" t="n">
+        <v>365.185</v>
+      </c>
+      <c r="E292" t="n">
+        <v>379.4223076923077</v>
+      </c>
+      <c r="F292" t="n">
+        <v>390.165</v>
+      </c>
+      <c r="G292" t="n">
+        <v>391.58</v>
+      </c>
+      <c r="H292" t="n">
+        <v>399.055</v>
+      </c>
+      <c r="I292" t="n">
+        <v>397.8052631578947</v>
+      </c>
+      <c r="J292" t="n">
+        <v>402.45</v>
+      </c>
+      <c r="K292" t="n">
+        <v>392.53</v>
+      </c>
+      <c r="L292" t="n">
+        <v>398.1266666666667</v>
+      </c>
+      <c r="M292" t="n">
+        <v>393.7847058823529</v>
+      </c>
+      <c r="N292" t="n">
+        <v>387.6915873015873</v>
+      </c>
+      <c r="O292" t="n">
+        <v>384.0310344827586</v>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>363.3045454545455</v>
+      </c>
+      <c r="C293" t="n">
+        <v>369.1822222222222</v>
+      </c>
+      <c r="D293" t="n">
+        <v>370.22</v>
+      </c>
+      <c r="E293" t="n">
+        <v>382.8146153846154</v>
+      </c>
+      <c r="F293" t="n">
+        <v>399.71</v>
+      </c>
+      <c r="G293" t="n">
+        <v>400.72</v>
+      </c>
+      <c r="H293" t="n">
+        <v>404.69</v>
+      </c>
+      <c r="I293" t="n">
+        <v>406.9794736842105</v>
+      </c>
+      <c r="J293" t="n">
+        <v>408.09</v>
+      </c>
+      <c r="K293" t="n">
+        <v>404.94</v>
+      </c>
+      <c r="L293" t="n">
+        <v>400.7033333333333</v>
+      </c>
+      <c r="M293" t="n">
+        <v>397.1229411764706</v>
+      </c>
+      <c r="N293" t="n">
+        <v>388.9884126984127</v>
+      </c>
+      <c r="O293" t="n">
+        <v>396.6634482758621</v>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>358.1863636363636</v>
+      </c>
+      <c r="C294" t="n">
+        <v>362.4277777777777</v>
+      </c>
+      <c r="D294" t="n">
+        <v>359.52</v>
+      </c>
+      <c r="E294" t="n">
+        <v>367.9423076923077</v>
+      </c>
+      <c r="F294" t="n">
+        <v>391.26</v>
+      </c>
+      <c r="G294" t="n">
+        <v>390.83</v>
+      </c>
+      <c r="H294" t="n">
+        <v>392.76</v>
+      </c>
+      <c r="I294" t="n">
+        <v>401.0094736842105</v>
+      </c>
+      <c r="J294" t="n">
+        <v>399</v>
+      </c>
+      <c r="K294" t="n">
+        <v>393.78</v>
+      </c>
+      <c r="L294" t="n">
+        <v>393.4066666666667</v>
+      </c>
+      <c r="M294" t="n">
+        <v>390.0723529411765</v>
+      </c>
+      <c r="N294" t="n">
+        <v>384.1130158730159</v>
+      </c>
+      <c r="O294" t="n">
+        <v>391.6220689655173</v>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>360.9872727272728</v>
+      </c>
+      <c r="C295" t="n">
+        <v>362.5688888888889</v>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="n">
+        <v>384.76</v>
+      </c>
+      <c r="G295" t="n">
+        <v>388.19</v>
+      </c>
+      <c r="H295" t="n">
+        <v>383.73</v>
+      </c>
+      <c r="I295" t="n">
+        <v>379.6668421052632</v>
+      </c>
+      <c r="J295" t="n">
+        <v>374.75</v>
+      </c>
+      <c r="K295" t="n">
+        <v>374.54</v>
+      </c>
+      <c r="L295" t="n">
+        <v>392.8433333333334</v>
+      </c>
+      <c r="M295" t="n">
+        <v>390.7894117647058</v>
+      </c>
+      <c r="N295" t="n">
+        <v>380.0007936507937</v>
+      </c>
+      <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14823,7 +15033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17771,6 +17981,46 @@
       </c>
       <c r="B294" t="n">
         <v>0.34</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -17944,28 +18194,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04442514552599445</v>
+        <v>-0.1189208972032432</v>
       </c>
       <c r="J2" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K2" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L2" t="n">
-        <v>4.040033903529583e-05</v>
+        <v>0.0003008108884922089</v>
       </c>
       <c r="M2" t="n">
-        <v>22.82272019958944</v>
+        <v>22.37785695728642</v>
       </c>
       <c r="N2" t="n">
-        <v>2546.877349492126</v>
+        <v>2500.933027416278</v>
       </c>
       <c r="O2" t="n">
-        <v>50.46659637316674</v>
+        <v>50.00932940378503</v>
       </c>
       <c r="P2" t="n">
-        <v>381.9521722874854</v>
+        <v>382.7145561076849</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18022,28 +18272,28 @@
         <v>0.108</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1800036013429097</v>
+        <v>-0.1844102383850814</v>
       </c>
       <c r="J3" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K3" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04547117601204154</v>
+        <v>0.04878649529473023</v>
       </c>
       <c r="M3" t="n">
-        <v>4.415748221681515</v>
+        <v>4.404350617382808</v>
       </c>
       <c r="N3" t="n">
-        <v>34.46255078704736</v>
+        <v>34.16572711289155</v>
       </c>
       <c r="O3" t="n">
-        <v>5.870481307954856</v>
+        <v>5.845145602368819</v>
       </c>
       <c r="P3" t="n">
-        <v>369.2802755062104</v>
+        <v>369.3258859066179</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18100,28 +18350,28 @@
         <v>0.0898</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3024060168565782</v>
+        <v>0.2924647347929117</v>
       </c>
       <c r="J4" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K4" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1040678162089731</v>
+        <v>0.0991616450014835</v>
       </c>
       <c r="M4" t="n">
-        <v>4.540394460345648</v>
+        <v>4.540798819122933</v>
       </c>
       <c r="N4" t="n">
-        <v>40.44795579102004</v>
+        <v>40.40377927239884</v>
       </c>
       <c r="O4" t="n">
-        <v>6.359870736974144</v>
+        <v>6.356396720815877</v>
       </c>
       <c r="P4" t="n">
-        <v>361.5117927995266</v>
+        <v>361.6145169723309</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18178,28 +18428,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1935460565357918</v>
+        <v>0.1947527871500909</v>
       </c>
       <c r="J5" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K5" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05426567280638073</v>
+        <v>0.0554496006951497</v>
       </c>
       <c r="M5" t="n">
-        <v>4.256460985515472</v>
+        <v>4.277537861570599</v>
       </c>
       <c r="N5" t="n">
-        <v>33.3753010435713</v>
+        <v>33.46508966769123</v>
       </c>
       <c r="O5" t="n">
-        <v>5.777136058945755</v>
+        <v>5.784901871915481</v>
       </c>
       <c r="P5" t="n">
-        <v>371.2493153268485</v>
+        <v>371.2372265088823</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18256,28 +18506,28 @@
         <v>0.091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1392123421635386</v>
+        <v>0.1242374043619219</v>
       </c>
       <c r="J6" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03017863031132939</v>
+        <v>0.02436921772393186</v>
       </c>
       <c r="M6" t="n">
-        <v>4.325994627204307</v>
+        <v>4.364691706442924</v>
       </c>
       <c r="N6" t="n">
-        <v>32.95749458044881</v>
+        <v>33.2464687244135</v>
       </c>
       <c r="O6" t="n">
-        <v>5.740861832551695</v>
+        <v>5.765975088778436</v>
       </c>
       <c r="P6" t="n">
-        <v>392.7222592190665</v>
+        <v>392.8734003575954</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18334,28 +18584,28 @@
         <v>0.1211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1410300791876342</v>
+        <v>0.1255033129602935</v>
       </c>
       <c r="J7" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K7" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02648755429329885</v>
+        <v>0.02136495376545955</v>
       </c>
       <c r="M7" t="n">
-        <v>4.359707556107116</v>
+        <v>4.393870095787282</v>
       </c>
       <c r="N7" t="n">
-        <v>38.87241427304533</v>
+        <v>38.99034330896433</v>
       </c>
       <c r="O7" t="n">
-        <v>6.234774596811446</v>
+        <v>6.24422479647909</v>
       </c>
       <c r="P7" t="n">
-        <v>394.2080350416612</v>
+        <v>394.3649082016898</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18412,28 +18662,28 @@
         <v>0.09569999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3895544933190336</v>
+        <v>0.3678738648798596</v>
       </c>
       <c r="J8" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K8" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1393997647020363</v>
+        <v>0.1260093208980028</v>
       </c>
       <c r="M8" t="n">
-        <v>4.933069701909102</v>
+        <v>4.995837957509351</v>
       </c>
       <c r="N8" t="n">
-        <v>48.92878355849059</v>
+        <v>49.85380852778915</v>
       </c>
       <c r="O8" t="n">
-        <v>6.994911261659478</v>
+        <v>7.06072294653948</v>
       </c>
       <c r="P8" t="n">
-        <v>391.9492330913714</v>
+        <v>392.1701092048887</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18490,28 +18740,28 @@
         <v>0.111</v>
       </c>
       <c r="I9" t="n">
-        <v>0.336658711868299</v>
+        <v>0.3009499724791757</v>
       </c>
       <c r="J9" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K9" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1023509184818906</v>
+        <v>0.08084278724798921</v>
       </c>
       <c r="M9" t="n">
-        <v>4.834789424634346</v>
+        <v>4.938421266689581</v>
       </c>
       <c r="N9" t="n">
-        <v>51.47039032409523</v>
+        <v>54.26266167240848</v>
       </c>
       <c r="O9" t="n">
-        <v>7.17428674671533</v>
+        <v>7.36631941151132</v>
       </c>
       <c r="P9" t="n">
-        <v>398.9479483238028</v>
+        <v>399.3115236668667</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18568,28 +18818,28 @@
         <v>0.1229</v>
       </c>
       <c r="I10" t="n">
-        <v>0.251194515005314</v>
+        <v>0.2084634781951865</v>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K10" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05608839350681627</v>
+        <v>0.03705281350390288</v>
       </c>
       <c r="M10" t="n">
-        <v>5.304660304464004</v>
+        <v>5.420139776521824</v>
       </c>
       <c r="N10" t="n">
-        <v>54.80153159979205</v>
+        <v>59.31033867256338</v>
       </c>
       <c r="O10" t="n">
-        <v>7.402805657302645</v>
+        <v>7.701320579781326</v>
       </c>
       <c r="P10" t="n">
-        <v>403.180183126824</v>
+        <v>403.6157821200275</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -18646,28 +18896,28 @@
         <v>0.1543</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1054430427114563</v>
+        <v>0.06786524135132097</v>
       </c>
       <c r="J11" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K11" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01069148158208877</v>
+        <v>0.004268513896224957</v>
       </c>
       <c r="M11" t="n">
-        <v>5.461241510946397</v>
+        <v>5.62152647945494</v>
       </c>
       <c r="N11" t="n">
-        <v>53.19705936674575</v>
+        <v>56.47543071240099</v>
       </c>
       <c r="O11" t="n">
-        <v>7.293631425205537</v>
+        <v>7.515013686774029</v>
       </c>
       <c r="P11" t="n">
-        <v>400.9518721489713</v>
+        <v>401.3367996116534</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -18724,28 +18974,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05090371235201648</v>
+        <v>-0.06167041793831929</v>
       </c>
       <c r="J12" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K12" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002719846049546004</v>
+        <v>0.004088262215612648</v>
       </c>
       <c r="M12" t="n">
-        <v>4.653337833904297</v>
+        <v>4.653076582675193</v>
       </c>
       <c r="N12" t="n">
-        <v>49.15421833398182</v>
+        <v>48.73029616805356</v>
       </c>
       <c r="O12" t="n">
-        <v>7.011006941515735</v>
+        <v>6.980708858565408</v>
       </c>
       <c r="P12" t="n">
-        <v>401.061525524986</v>
+        <v>401.1717684705626</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -18802,28 +19052,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1203048046779826</v>
+        <v>-0.1305336392097342</v>
       </c>
       <c r="J13" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K13" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02055188920032602</v>
+        <v>0.02471215767713919</v>
       </c>
       <c r="M13" t="n">
-        <v>3.941259288812062</v>
+        <v>3.935898853761467</v>
       </c>
       <c r="N13" t="n">
-        <v>35.42937720639893</v>
+        <v>35.14403778256639</v>
       </c>
       <c r="O13" t="n">
-        <v>5.952258160261443</v>
+        <v>5.928240698771128</v>
       </c>
       <c r="P13" t="n">
-        <v>399.2510561368405</v>
+        <v>399.3558523119692</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -18874,28 +19124,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.1669750163459913</v>
+        <v>-0.2046971122521637</v>
       </c>
       <c r="J14" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K14" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02260035360002466</v>
+        <v>0.03346599783250848</v>
       </c>
       <c r="M14" t="n">
-        <v>6.173636024385328</v>
+        <v>6.277272695456944</v>
       </c>
       <c r="N14" t="n">
-        <v>61.8623756861009</v>
+        <v>63.21225999049739</v>
       </c>
       <c r="O14" t="n">
-        <v>7.865263866273076</v>
+        <v>7.950613812184402</v>
       </c>
       <c r="P14" t="n">
-        <v>401.3598156985011</v>
+        <v>401.7437749567772</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -18952,28 +19202,28 @@
         <v>0.1911</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.197423863475469</v>
+        <v>-0.2099270375077961</v>
       </c>
       <c r="J15" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K15" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05667724158656806</v>
+        <v>0.06397638988624166</v>
       </c>
       <c r="M15" t="n">
-        <v>3.842737285063333</v>
+        <v>3.869739519512326</v>
       </c>
       <c r="N15" t="n">
-        <v>33.39598819167858</v>
+        <v>33.63723643764556</v>
       </c>
       <c r="O15" t="n">
-        <v>5.778926214417224</v>
+        <v>5.799761756972916</v>
       </c>
       <c r="P15" t="n">
-        <v>401.0566043081174</v>
+        <v>401.1836469135529</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -19011,7 +19261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P291"/>
+  <dimension ref="A1:P295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40149,6 +40399,322 @@
         </is>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>-35.27297088904459,174.08020730728722</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-35.27368807135955,174.08038919131639</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>-35.27439141009815,174.08063799462826</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-35.2750474481129,174.0810396937049</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-35.27563577210869,174.08147375623318</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>-35.27610944027569,174.08206142450163</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>-35.27651876829712,174.08277569778087</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>-35.276948010753976,174.08345942726302</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>-35.2772628214403,174.08421664368987</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>-35.277616374668796,174.08496602599112</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>-35.2778076142498,174.08581586317325</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>-35.27805487112295,174.0866441768065</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>-35.27827903675293,174.0874864498147</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>-35.27845824945556,174.08835363099251</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>-35.272976022996744,174.0801862918119</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>-35.2736650874098,174.0804989581797</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>-35.274380049034264,174.08069158892883</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>-35.275036840221986,174.08107467470217</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>-35.275587700540086,174.08156079861124</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>-35.27604908702396,174.082129846119</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>-35.276478846586215,174.082814016356</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>-35.2768787648275,174.08351459530633</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>-35.277217214656325,174.08424406770615</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>-35.277511737647224,174.08501434508304</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>-35.27778549695335,174.08582452985354</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>-35.27802579205237,174.08665364303536</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>-35.278267611708024,174.08748947980231</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>-35.27834653558977,174.08838067046187</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>-35.272989197160115,174.08013236421226</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>-35.27368015313481,174.08042700727452</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>-35.27440419267716,174.0805776943688</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-35.27508334648883,174.08092131349875</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>-35.27563025735354,174.0814837417182</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>-35.27611439267434,174.0820558100318</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>-35.27656336582898,174.0827328910941</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>-35.27692382573003,174.08347869541927</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>-35.27729071920416,174.08419986834582</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>-35.27760583508247,174.08497089294784</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>-35.27784812924399,174.08579998732793</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>-35.27808720909817,174.0866336496851</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>-35.2783105640031,174.08747808860227</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>-35.278391118675074,174.08836987948263</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>-35.272981987643114,174.08016187592577</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-35.27367983838824,174.08042851044394</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>-35.275662993331274,174.08142446712975</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>-35.27613182511554,174.0820360470926</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>-35.27662733970536,174.08267148602744</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>-35.277084917478746,174.08335035371306</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>-35.277486812118525,174.0840819543765</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>-35.27776806037408,174.08489598061357</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>-35.27785296471986,174.08579809254027</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>-35.278080962862816,174.08663568304985</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>-35.27834679272135,174.087468480525</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0066/nzd0066.xlsx
+++ b/data/nzd0066/nzd0066.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P295"/>
+  <dimension ref="A1:P298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15022,6 +15022,150 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>362.319090909091</v>
+      </c>
+      <c r="C296" t="n">
+        <v>364.8522222222222</v>
+      </c>
+      <c r="D296" t="n">
+        <v>373.58</v>
+      </c>
+      <c r="E296" t="n">
+        <v>401.8561538461539</v>
+      </c>
+      <c r="F296" t="n">
+        <v>412.37</v>
+      </c>
+      <c r="G296" t="n">
+        <v>400.83</v>
+      </c>
+      <c r="H296" t="n">
+        <v>395.19</v>
+      </c>
+      <c r="I296" t="n">
+        <v>408.02</v>
+      </c>
+      <c r="J296" t="n">
+        <v>408.68</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
+        <v>394.3426984126984</v>
+      </c>
+      <c r="O296" t="n">
+        <v>396.4006896551724</v>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="n">
+        <v>364.3633333333333</v>
+      </c>
+      <c r="D297" t="n">
+        <v>366.835</v>
+      </c>
+      <c r="E297" t="n">
+        <v>380.0138461538461</v>
+      </c>
+      <c r="F297" t="n">
+        <v>400.705</v>
+      </c>
+      <c r="G297" t="n">
+        <v>403.04</v>
+      </c>
+      <c r="H297" t="n">
+        <v>403.775</v>
+      </c>
+      <c r="I297" t="n">
+        <v>406.7715789473684</v>
+      </c>
+      <c r="J297" t="n">
+        <v>410.22</v>
+      </c>
+      <c r="K297" t="n">
+        <v>406.99</v>
+      </c>
+      <c r="L297" t="n">
+        <v>401.7000000000001</v>
+      </c>
+      <c r="M297" t="n">
+        <v>397.46</v>
+      </c>
+      <c r="N297" t="n">
+        <v>404.5619047619048</v>
+      </c>
+      <c r="O297" t="n">
+        <v>396.9927586206896</v>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>364.0009090909091</v>
+      </c>
+      <c r="C298" t="n">
+        <v>352.2922222222222</v>
+      </c>
+      <c r="D298" t="n">
+        <v>359.695</v>
+      </c>
+      <c r="E298" t="n">
+        <v>368.8092307692308</v>
+      </c>
+      <c r="F298" t="n">
+        <v>389.315</v>
+      </c>
+      <c r="G298" t="n">
+        <v>391.55</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="n">
+        <v>398.2423529411765</v>
+      </c>
+      <c r="N298" t="n">
+        <v>387.3098412698413</v>
+      </c>
+      <c r="O298" t="n">
+        <v>393.8841379310345</v>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15033,7 +15177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18021,6 +18165,36 @@
       </c>
       <c r="B298" t="n">
         <v>0.26</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -18194,28 +18368,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1189208972032432</v>
+        <v>-0.1509413642989363</v>
       </c>
       <c r="J2" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K2" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003008108884922089</v>
+        <v>0.0004937868786633048</v>
       </c>
       <c r="M2" t="n">
-        <v>22.37785695728642</v>
+        <v>22.16488951999427</v>
       </c>
       <c r="N2" t="n">
-        <v>2500.933027416278</v>
+        <v>2477.878214820141</v>
       </c>
       <c r="O2" t="n">
-        <v>50.00932940378503</v>
+        <v>49.77829059761033</v>
       </c>
       <c r="P2" t="n">
-        <v>382.7145561076849</v>
+        <v>383.0445713091137</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18272,28 +18446,28 @@
         <v>0.108</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1844102383850814</v>
+        <v>-0.193797760704585</v>
       </c>
       <c r="J3" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K3" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04878649529473023</v>
+        <v>0.05395160025615886</v>
       </c>
       <c r="M3" t="n">
-        <v>4.404350617382808</v>
+        <v>4.404064585493066</v>
       </c>
       <c r="N3" t="n">
-        <v>34.16572711289155</v>
+        <v>34.34906698847313</v>
       </c>
       <c r="O3" t="n">
-        <v>5.845145602368819</v>
+        <v>5.860807707856753</v>
       </c>
       <c r="P3" t="n">
-        <v>369.3258859066179</v>
+        <v>369.4239045029503</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18350,28 +18524,28 @@
         <v>0.0898</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2924647347929117</v>
+        <v>0.2868872638199597</v>
       </c>
       <c r="J4" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K4" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0991616450014835</v>
+        <v>0.09686401852347815</v>
       </c>
       <c r="M4" t="n">
-        <v>4.540798819122933</v>
+        <v>4.548467571557412</v>
       </c>
       <c r="N4" t="n">
-        <v>40.40377927239884</v>
+        <v>40.37462338434509</v>
       </c>
       <c r="O4" t="n">
-        <v>6.356396720815877</v>
+        <v>6.354102878010797</v>
       </c>
       <c r="P4" t="n">
-        <v>361.6145169723309</v>
+        <v>361.6726551567296</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18428,28 +18602,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1947527871500909</v>
+        <v>0.2117793119108256</v>
       </c>
       <c r="J5" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K5" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0554496006951497</v>
+        <v>0.06149173886276094</v>
       </c>
       <c r="M5" t="n">
-        <v>4.277537861570599</v>
+        <v>4.370913145935934</v>
       </c>
       <c r="N5" t="n">
-        <v>33.46508966769123</v>
+        <v>35.9132043390203</v>
       </c>
       <c r="O5" t="n">
-        <v>5.784901871915481</v>
+        <v>5.99276266333152</v>
       </c>
       <c r="P5" t="n">
-        <v>371.2372265088823</v>
+        <v>371.0617411165631</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18506,28 +18680,28 @@
         <v>0.091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1242374043619219</v>
+        <v>0.1349652566840947</v>
       </c>
       <c r="J6" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K6" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02436921772393186</v>
+        <v>0.02820305136199275</v>
       </c>
       <c r="M6" t="n">
-        <v>4.364691706442924</v>
+        <v>4.42047751432996</v>
       </c>
       <c r="N6" t="n">
-        <v>33.2464687244135</v>
+        <v>34.17337873802879</v>
       </c>
       <c r="O6" t="n">
-        <v>5.765975088778436</v>
+        <v>5.845800093916041</v>
       </c>
       <c r="P6" t="n">
-        <v>392.8734003575954</v>
+        <v>392.7646794441342</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18584,28 +18758,28 @@
         <v>0.1211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1255033129602935</v>
+        <v>0.1274907831148064</v>
       </c>
       <c r="J7" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K7" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02136495376545955</v>
+        <v>0.02237522260031644</v>
       </c>
       <c r="M7" t="n">
-        <v>4.393870095787282</v>
+        <v>4.399965478204805</v>
       </c>
       <c r="N7" t="n">
-        <v>38.99034330896433</v>
+        <v>38.82633836287998</v>
       </c>
       <c r="O7" t="n">
-        <v>6.24422479647909</v>
+        <v>6.231078426956283</v>
       </c>
       <c r="P7" t="n">
-        <v>394.3649082016898</v>
+        <v>394.3447834185417</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18662,28 +18836,28 @@
         <v>0.09569999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3678738648798596</v>
+        <v>0.3645342854970881</v>
       </c>
       <c r="J8" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K8" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1260093208980028</v>
+        <v>0.1253813908930851</v>
       </c>
       <c r="M8" t="n">
-        <v>4.995837957509351</v>
+        <v>4.991687061574025</v>
       </c>
       <c r="N8" t="n">
-        <v>49.85380852778915</v>
+        <v>49.63561598258461</v>
       </c>
       <c r="O8" t="n">
-        <v>7.06072294653948</v>
+        <v>7.045254855758208</v>
       </c>
       <c r="P8" t="n">
-        <v>392.1701092048887</v>
+        <v>392.204242380675</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18740,28 +18914,28 @@
         <v>0.111</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3009499724791757</v>
+        <v>0.3014872145019873</v>
       </c>
       <c r="J9" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K9" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08084278724798921</v>
+        <v>0.0823450955214805</v>
       </c>
       <c r="M9" t="n">
-        <v>4.938421266689581</v>
+        <v>4.903597959402711</v>
       </c>
       <c r="N9" t="n">
-        <v>54.26266167240848</v>
+        <v>53.8291574409962</v>
       </c>
       <c r="O9" t="n">
-        <v>7.36631941151132</v>
+        <v>7.336835655853019</v>
       </c>
       <c r="P9" t="n">
-        <v>399.3115236668667</v>
+        <v>399.3060302526655</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18818,28 +18992,28 @@
         <v>0.1229</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2084634781951865</v>
+        <v>0.2091981854327486</v>
       </c>
       <c r="J10" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K10" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03705281350390288</v>
+        <v>0.03789449983631421</v>
       </c>
       <c r="M10" t="n">
-        <v>5.420139776521824</v>
+        <v>5.383256768147294</v>
       </c>
       <c r="N10" t="n">
-        <v>59.31033867256338</v>
+        <v>58.84602138540674</v>
       </c>
       <c r="O10" t="n">
-        <v>7.701320579781326</v>
+        <v>7.671116045622484</v>
       </c>
       <c r="P10" t="n">
-        <v>403.6157821200275</v>
+        <v>403.6082502581129</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -18896,28 +19070,28 @@
         <v>0.1543</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06786524135132097</v>
+        <v>0.07087189503057957</v>
       </c>
       <c r="J11" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K11" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004268513896224957</v>
+        <v>0.00468560850605193</v>
       </c>
       <c r="M11" t="n">
-        <v>5.62152647945494</v>
+        <v>5.610839066515499</v>
       </c>
       <c r="N11" t="n">
-        <v>56.47543071240099</v>
+        <v>56.31245861042648</v>
       </c>
       <c r="O11" t="n">
-        <v>7.515013686774029</v>
+        <v>7.50416275212808</v>
       </c>
       <c r="P11" t="n">
-        <v>401.3367996116534</v>
+        <v>401.3058227240406</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -18974,28 +19148,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06167041793831929</v>
+        <v>-0.06004106127673633</v>
       </c>
       <c r="J12" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K12" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004088262215612648</v>
+        <v>0.003905615600569012</v>
       </c>
       <c r="M12" t="n">
-        <v>4.653076582675193</v>
+        <v>4.6412509009433</v>
       </c>
       <c r="N12" t="n">
-        <v>48.73029616805356</v>
+        <v>48.55585230941229</v>
       </c>
       <c r="O12" t="n">
-        <v>6.980708858565408</v>
+        <v>6.968202946916249</v>
       </c>
       <c r="P12" t="n">
-        <v>401.1717684705626</v>
+        <v>401.1549989275127</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19052,28 +19226,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1305336392097342</v>
+        <v>-0.1276299262452735</v>
       </c>
       <c r="J13" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K13" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02471215767713919</v>
+        <v>0.02401454436031714</v>
       </c>
       <c r="M13" t="n">
-        <v>3.935898853761467</v>
+        <v>3.919341536723091</v>
       </c>
       <c r="N13" t="n">
-        <v>35.14403778256639</v>
+        <v>34.89202294925882</v>
       </c>
       <c r="O13" t="n">
-        <v>5.928240698771128</v>
+        <v>5.906947007486932</v>
       </c>
       <c r="P13" t="n">
-        <v>399.3558523119692</v>
+        <v>399.3259207721446</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -19124,28 +19298,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.2046971122521637</v>
+        <v>-0.2071970255812531</v>
       </c>
       <c r="J14" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K14" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03346599783250848</v>
+        <v>0.03476468469077654</v>
       </c>
       <c r="M14" t="n">
-        <v>6.277272695456944</v>
+        <v>6.280380058495391</v>
       </c>
       <c r="N14" t="n">
-        <v>63.21225999049739</v>
+        <v>63.07102037679835</v>
       </c>
       <c r="O14" t="n">
-        <v>7.950613812184402</v>
+        <v>7.94172653626391</v>
       </c>
       <c r="P14" t="n">
-        <v>401.7437749567772</v>
+        <v>401.7694391524792</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -19202,28 +19376,28 @@
         <v>0.1911</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2099270375077961</v>
+        <v>-0.2099822732109368</v>
       </c>
       <c r="J15" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K15" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06397638988624166</v>
+        <v>0.06548135587804849</v>
       </c>
       <c r="M15" t="n">
-        <v>3.869739519512326</v>
+        <v>3.838461719480153</v>
       </c>
       <c r="N15" t="n">
-        <v>33.63723643764556</v>
+        <v>33.25833006484077</v>
       </c>
       <c r="O15" t="n">
-        <v>5.799761756972916</v>
+        <v>5.767003560328429</v>
       </c>
       <c r="P15" t="n">
-        <v>401.1836469135529</v>
+        <v>401.1842341408413</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -19261,7 +19435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P295"/>
+  <dimension ref="A1:P298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40715,6 +40889,216 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-35.27297855955155,174.08017590859518</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>-35.27367474543909,174.0804528333799</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-35.27437246745723,174.08072735393503</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-35.27497729633355,174.08127102818068</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>-35.27552394077484,174.08167624701116</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>-35.276048360671695,174.08213066957327</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>-35.276546150262405,174.08274941536476</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>-35.276870911048405,174.08352085238388</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>-35.27721244373354,174.0842469365288</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>-35.278220440395685,174.0875019898969</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>-35.27834885927727,174.08838010803217</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-35.273675835900626,174.0804476255496</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>-35.27438768701127,174.08065555780692</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-35.27504559834761,174.08104579356655</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>-35.2755826894092,174.081569872169</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>-35.27603376759306,174.08214721351558</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>-35.27648532899437,174.0828077942652</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>-35.27688033399424,174.08351334515663</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>-35.27719999081612,174.08425442464062</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>-35.27749445272243,174.0850223268714</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>-35.27777694187992,174.0858278821646</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>-35.27802285596292,174.08665459883224</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>-35.27813040907851,174.08752586666398</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>-35.27834362335673,174.08838137534417</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>-35.2729742305599,174.0801936290292</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-35.273702760317,174.08031903943888</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>-35.274403797805356,174.08057955713085</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-35.27508063559294,174.08093025309591</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>-35.27564005296831,174.08146600494254</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>-35.276109638371636,174.08206119992283</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>-35.27801604095594,174.0866568173482</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>-35.27828239993932,174.08748555787815</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>-35.27837111422653,174.08837472140084</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0066/nzd0066.xlsx
+++ b/data/nzd0066/nzd0066.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22329,7 +22329,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-35.27816551627251,174.0875165560622</t>
+          <t>-35.2781655162725,174.0875165560622</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -27557,7 +27557,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>-35.275597244350344,174.08154351781212</t>
+          <t>-35.27559724435035,174.08154351781212</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -33473,7 +33473,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>-35.27818597367667,174.08751113065367</t>
+          <t>-35.27818597367668,174.08751113065367</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -34037,7 +34037,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>-35.275597244350344,174.08154351781212</t>
+          <t>-35.27559724435035,174.08154351781212</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -39437,7 +39437,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>-35.276520787407286,174.08277375975078</t>
+          <t>-35.27652078740729,174.08277375975078</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">

--- a/data/nzd0066/nzd0066.xlsx
+++ b/data/nzd0066/nzd0066.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P298"/>
+  <dimension ref="A1:P299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15166,6 +15166,58 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="n">
+        <v>361.1222222222222</v>
+      </c>
+      <c r="D299" t="n">
+        <v>362.3</v>
+      </c>
+      <c r="E299" t="n">
+        <v>375.7607692307692</v>
+      </c>
+      <c r="F299" t="n">
+        <v>396.1</v>
+      </c>
+      <c r="G299" t="n">
+        <v>395.54</v>
+      </c>
+      <c r="H299" t="n">
+        <v>399.01</v>
+      </c>
+      <c r="I299" t="n">
+        <v>404.7115789473684</v>
+      </c>
+      <c r="J299" t="n">
+        <v>407.59</v>
+      </c>
+      <c r="K299" t="n">
+        <v>404.79</v>
+      </c>
+      <c r="L299" t="n">
+        <v>398.5533333333333</v>
+      </c>
+      <c r="M299" t="n">
+        <v>401.1223529411765</v>
+      </c>
+      <c r="N299" t="n">
+        <v>402.0555555555555</v>
+      </c>
+      <c r="O299" t="n">
+        <v>398.3124137931034</v>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15177,7 +15229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18195,6 +18247,16 @@
       </c>
       <c r="B301" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -18371,7 +18433,7 @@
         <v>-0.1509413642989363</v>
       </c>
       <c r="J2" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K2" t="n">
         <v>194</v>
@@ -18446,28 +18508,28 @@
         <v>0.108</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.193797760704585</v>
+        <v>-0.1963103777660782</v>
       </c>
       <c r="J3" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K3" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05395160025615886</v>
+        <v>0.05562607921963481</v>
       </c>
       <c r="M3" t="n">
-        <v>4.404064585493066</v>
+        <v>4.400387843793878</v>
       </c>
       <c r="N3" t="n">
-        <v>34.34906698847313</v>
+        <v>34.25707857443194</v>
       </c>
       <c r="O3" t="n">
-        <v>5.860807707856753</v>
+        <v>5.852954687543031</v>
       </c>
       <c r="P3" t="n">
-        <v>369.4239045029503</v>
+        <v>369.4501664423415</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18524,28 +18586,28 @@
         <v>0.0898</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2868872638199597</v>
+        <v>0.2817844296228588</v>
       </c>
       <c r="J4" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K4" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09686401852347815</v>
+        <v>0.09405060372876706</v>
       </c>
       <c r="M4" t="n">
-        <v>4.548467571557412</v>
+        <v>4.554821023207306</v>
       </c>
       <c r="N4" t="n">
-        <v>40.37462338434509</v>
+        <v>40.39386875820865</v>
       </c>
       <c r="O4" t="n">
-        <v>6.354102878010797</v>
+        <v>6.355617102863313</v>
       </c>
       <c r="P4" t="n">
-        <v>361.6726551567296</v>
+        <v>361.7258514956526</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18602,28 +18664,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2117793119108256</v>
+        <v>0.211191538428738</v>
       </c>
       <c r="J5" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K5" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06149173886276094</v>
+        <v>0.06163236923475279</v>
       </c>
       <c r="M5" t="n">
-        <v>4.370913145935934</v>
+        <v>4.356658724086229</v>
       </c>
       <c r="N5" t="n">
-        <v>35.9132043390203</v>
+        <v>35.77406396380795</v>
       </c>
       <c r="O5" t="n">
-        <v>5.99276266333152</v>
+        <v>5.981142362777194</v>
       </c>
       <c r="P5" t="n">
-        <v>371.0617411165631</v>
+        <v>371.0678211981544</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18680,28 +18742,28 @@
         <v>0.091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1349652566840947</v>
+        <v>0.1348567212091558</v>
       </c>
       <c r="J6" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K6" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02820305136199275</v>
+        <v>0.02837372743495137</v>
       </c>
       <c r="M6" t="n">
-        <v>4.42047751432996</v>
+        <v>4.403389166694376</v>
       </c>
       <c r="N6" t="n">
-        <v>34.17337873802879</v>
+        <v>34.03676722611587</v>
       </c>
       <c r="O6" t="n">
-        <v>5.845800093916041</v>
+        <v>5.834103806594109</v>
       </c>
       <c r="P6" t="n">
-        <v>392.7646794441342</v>
+        <v>392.7657838180584</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18758,28 +18820,28 @@
         <v>0.1211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1274907831148064</v>
+        <v>0.1259135403273008</v>
       </c>
       <c r="J7" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K7" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02237522260031644</v>
+        <v>0.02199388868138508</v>
       </c>
       <c r="M7" t="n">
-        <v>4.399965478204805</v>
+        <v>4.390669272375977</v>
       </c>
       <c r="N7" t="n">
-        <v>38.82633836287998</v>
+        <v>38.68664758096162</v>
       </c>
       <c r="O7" t="n">
-        <v>6.231078426956283</v>
+        <v>6.219859128707146</v>
       </c>
       <c r="P7" t="n">
-        <v>394.3447834185417</v>
+        <v>394.3608545241819</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18836,28 +18898,28 @@
         <v>0.09569999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3645342854970881</v>
+        <v>0.3625317137909078</v>
       </c>
       <c r="J8" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K8" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1253813908930851</v>
+        <v>0.12499429496158</v>
       </c>
       <c r="M8" t="n">
-        <v>4.991687061574025</v>
+        <v>4.982821132277865</v>
       </c>
       <c r="N8" t="n">
-        <v>49.63561598258461</v>
+        <v>49.46223378029445</v>
       </c>
       <c r="O8" t="n">
-        <v>7.045254855758208</v>
+        <v>7.032939199246248</v>
       </c>
       <c r="P8" t="n">
-        <v>392.204242380675</v>
+        <v>392.224787607822</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18914,28 +18976,28 @@
         <v>0.111</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3014872145019873</v>
+        <v>0.2996395829270241</v>
       </c>
       <c r="J9" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K9" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0823450955214805</v>
+        <v>0.0820023233812367</v>
       </c>
       <c r="M9" t="n">
-        <v>4.903597959402711</v>
+        <v>4.893485437820106</v>
       </c>
       <c r="N9" t="n">
-        <v>53.8291574409962</v>
+        <v>53.63519810423112</v>
       </c>
       <c r="O9" t="n">
-        <v>7.336835655853019</v>
+        <v>7.323605539912094</v>
       </c>
       <c r="P9" t="n">
-        <v>399.3060302526655</v>
+        <v>399.3249909027444</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18992,28 +19054,28 @@
         <v>0.1229</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2091981854327486</v>
+        <v>0.2081079987053697</v>
       </c>
       <c r="J10" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K10" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03789449983631421</v>
+        <v>0.03780384306462414</v>
       </c>
       <c r="M10" t="n">
-        <v>5.383256768147294</v>
+        <v>5.367463640536346</v>
       </c>
       <c r="N10" t="n">
-        <v>58.84602138540674</v>
+        <v>58.62120665341251</v>
       </c>
       <c r="O10" t="n">
-        <v>7.671116045622484</v>
+        <v>7.65644869723637</v>
       </c>
       <c r="P10" t="n">
-        <v>403.6082502581129</v>
+        <v>403.619445974323</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19070,28 +19132,28 @@
         <v>0.1543</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07087189503057957</v>
+        <v>0.07213756266910573</v>
       </c>
       <c r="J11" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K11" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00468560850605193</v>
+        <v>0.004891243306426207</v>
       </c>
       <c r="M11" t="n">
-        <v>5.610839066515499</v>
+        <v>5.593613933440498</v>
       </c>
       <c r="N11" t="n">
-        <v>56.31245861042648</v>
+        <v>56.10226723450494</v>
       </c>
       <c r="O11" t="n">
-        <v>7.50416275212808</v>
+        <v>7.490144673803367</v>
       </c>
       <c r="P11" t="n">
-        <v>401.3058227240406</v>
+        <v>401.2927554576393</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19148,28 +19210,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06004106127673633</v>
+        <v>-0.06084657634669683</v>
       </c>
       <c r="J12" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K12" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003905615600569012</v>
+        <v>0.00404226743443914</v>
       </c>
       <c r="M12" t="n">
-        <v>4.6412509009433</v>
+        <v>4.628033393075108</v>
       </c>
       <c r="N12" t="n">
-        <v>48.55585230941229</v>
+        <v>48.36974085275782</v>
       </c>
       <c r="O12" t="n">
-        <v>6.968202946916249</v>
+        <v>6.954835789057698</v>
       </c>
       <c r="P12" t="n">
-        <v>401.1549989275127</v>
+        <v>401.1633067718053</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19226,28 +19288,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1276299262452735</v>
+        <v>-0.1236872366255037</v>
       </c>
       <c r="J13" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K13" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02401454436031714</v>
+        <v>0.02270099868437436</v>
       </c>
       <c r="M13" t="n">
-        <v>3.919341536723091</v>
+        <v>3.92383475519931</v>
       </c>
       <c r="N13" t="n">
-        <v>34.89202294925882</v>
+        <v>34.85500832833137</v>
       </c>
       <c r="O13" t="n">
-        <v>5.906947007486932</v>
+        <v>5.9038130329755</v>
       </c>
       <c r="P13" t="n">
-        <v>399.3259207721446</v>
+        <v>399.2852203455681</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -19298,28 +19360,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.2071970255812531</v>
+        <v>-0.2028719877865657</v>
       </c>
       <c r="J14" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K14" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03476468469077654</v>
+        <v>0.03357427033269911</v>
       </c>
       <c r="M14" t="n">
-        <v>6.280380058495391</v>
+        <v>6.275958090809024</v>
       </c>
       <c r="N14" t="n">
-        <v>63.07102037679835</v>
+        <v>62.94639654421073</v>
       </c>
       <c r="O14" t="n">
-        <v>7.94172653626391</v>
+        <v>7.933876514303127</v>
       </c>
       <c r="P14" t="n">
-        <v>401.7694391524792</v>
+        <v>401.7250467061683</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -19376,28 +19438,28 @@
         <v>0.1911</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2099822732109368</v>
+        <v>-0.208012722948</v>
       </c>
       <c r="J15" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K15" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06548135587804849</v>
+        <v>0.06478237814693155</v>
       </c>
       <c r="M15" t="n">
-        <v>3.838461719480153</v>
+        <v>3.832111035909862</v>
       </c>
       <c r="N15" t="n">
-        <v>33.25833006484077</v>
+        <v>33.15209673375877</v>
       </c>
       <c r="O15" t="n">
-        <v>5.767003560328429</v>
+        <v>5.757785749205919</v>
       </c>
       <c r="P15" t="n">
-        <v>401.1842341408413</v>
+        <v>401.1640002449614</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -19435,7 +19497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P298"/>
+  <dimension ref="A1:P299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41099,6 +41161,84 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-35.27368306515936,174.08041309999817</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-35.27439791985304,174.08060728567244</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-35.275058897888734,174.0810019364275</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>-35.27560588162247,174.08152787845742</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>-35.27608329160668,174.08209106889095</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>-35.27651908710399,174.08277539177612</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>-35.27689588264841,174.0835009575949</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>-35.27722125781117,174.08424163650025</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>-35.2775130023978,174.08501376104962</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>-35.27780395187734,174.08581729827716</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>-35.27799095353139,174.08666498415283</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>-35.27815249004229,174.0875200106839</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>-35.27833195307832,174.08838420003966</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0066/nzd0066.xlsx
+++ b/data/nzd0066/nzd0066.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P299"/>
+  <dimension ref="A1:P300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15172,7 +15172,9 @@
           <t>2025-06-06 22:10:54+00:00</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr"/>
+      <c r="B299" t="n">
+        <v>585.4027272727272</v>
+      </c>
       <c r="C299" t="n">
         <v>361.1222222222222</v>
       </c>
@@ -15213,6 +15215,60 @@
         <v>398.3124137931034</v>
       </c>
       <c r="P299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>590.2909090909092</v>
+      </c>
+      <c r="C300" t="n">
+        <v>364.6966666666667</v>
+      </c>
+      <c r="D300" t="n">
+        <v>364.145</v>
+      </c>
+      <c r="E300" t="n">
+        <v>374.6823076923077</v>
+      </c>
+      <c r="F300" t="n">
+        <v>395.075</v>
+      </c>
+      <c r="G300" t="n">
+        <v>398.77</v>
+      </c>
+      <c r="H300" t="n">
+        <v>398.005</v>
+      </c>
+      <c r="I300" t="n">
+        <v>403.6205263157895</v>
+      </c>
+      <c r="J300" t="n">
+        <v>409.08</v>
+      </c>
+      <c r="K300" t="n">
+        <v>404.73</v>
+      </c>
+      <c r="L300" t="n">
+        <v>399.84</v>
+      </c>
+      <c r="M300" t="n">
+        <v>396.1494117647059</v>
+      </c>
+      <c r="N300" t="n">
+        <v>402.0752380952381</v>
+      </c>
+      <c r="O300" t="n">
+        <v>395.4762068965517</v>
+      </c>
+      <c r="P300" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -15229,7 +15285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18257,6 +18313,16 @@
       </c>
       <c r="B302" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -18430,28 +18496,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1509413642989363</v>
+        <v>0.2449354860223067</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004937868786633048</v>
+        <v>0.001126797527149836</v>
       </c>
       <c r="M2" t="n">
-        <v>22.16488951999427</v>
+        <v>26.02200940517193</v>
       </c>
       <c r="N2" t="n">
-        <v>2477.878214820141</v>
+        <v>2884.053104927159</v>
       </c>
       <c r="O2" t="n">
-        <v>49.77829059761033</v>
+        <v>53.70338075882336</v>
       </c>
       <c r="P2" t="n">
-        <v>383.0445713091137</v>
+        <v>378.9506644312104</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18508,28 +18574,28 @@
         <v>0.108</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1963103777660782</v>
+        <v>-0.1960720210529999</v>
       </c>
       <c r="J3" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05562607921963481</v>
+        <v>0.05590564735110592</v>
       </c>
       <c r="M3" t="n">
-        <v>4.400387843793878</v>
+        <v>4.384422536511845</v>
       </c>
       <c r="N3" t="n">
-        <v>34.25707857443194</v>
+        <v>34.12416635872975</v>
       </c>
       <c r="O3" t="n">
-        <v>5.852954687543031</v>
+        <v>5.841589369232465</v>
       </c>
       <c r="P3" t="n">
-        <v>369.4501664423415</v>
+        <v>369.4476698875483</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18586,28 +18652,28 @@
         <v>0.0898</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2817844296228588</v>
+        <v>0.2781488499465282</v>
       </c>
       <c r="J4" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K4" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09405060372876706</v>
+        <v>0.09231229840114108</v>
       </c>
       <c r="M4" t="n">
-        <v>4.554821023207306</v>
+        <v>4.554177862922554</v>
       </c>
       <c r="N4" t="n">
-        <v>40.39386875820865</v>
+        <v>40.32718813657321</v>
       </c>
       <c r="O4" t="n">
-        <v>6.355617102863313</v>
+        <v>6.350369133882944</v>
       </c>
       <c r="P4" t="n">
-        <v>361.7258514956526</v>
+        <v>361.7638331507003</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18664,28 +18730,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.211191538428738</v>
+        <v>0.2097810716080555</v>
       </c>
       <c r="J5" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K5" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06163236923475279</v>
+        <v>0.06129928540658058</v>
       </c>
       <c r="M5" t="n">
-        <v>4.356658724086229</v>
+        <v>4.346603725608145</v>
       </c>
       <c r="N5" t="n">
-        <v>35.77406396380795</v>
+        <v>35.64688156956841</v>
       </c>
       <c r="O5" t="n">
-        <v>5.981142362777194</v>
+        <v>5.970500947958087</v>
       </c>
       <c r="P5" t="n">
-        <v>371.0678211981544</v>
+        <v>371.0824417431912</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18742,28 +18808,28 @@
         <v>0.091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1348567212091558</v>
+        <v>0.1339792256034694</v>
       </c>
       <c r="J6" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K6" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02837372743495137</v>
+        <v>0.02822379455024404</v>
       </c>
       <c r="M6" t="n">
-        <v>4.403389166694376</v>
+        <v>4.3906051011235</v>
       </c>
       <c r="N6" t="n">
-        <v>34.03676722611587</v>
+        <v>33.90658255455995</v>
       </c>
       <c r="O6" t="n">
-        <v>5.834103806594109</v>
+        <v>5.822935905070564</v>
       </c>
       <c r="P6" t="n">
-        <v>392.7657838180584</v>
+        <v>392.7747322747916</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18820,28 +18886,28 @@
         <v>0.1211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1259135403273008</v>
+        <v>0.1267800507792512</v>
       </c>
       <c r="J7" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02199388868138508</v>
+        <v>0.0224565639461094</v>
       </c>
       <c r="M7" t="n">
-        <v>4.390669272375977</v>
+        <v>4.37755273923873</v>
       </c>
       <c r="N7" t="n">
-        <v>38.68664758096162</v>
+        <v>38.53599353691575</v>
       </c>
       <c r="O7" t="n">
-        <v>6.219859128707146</v>
+        <v>6.207736587268806</v>
       </c>
       <c r="P7" t="n">
-        <v>394.3608545241819</v>
+        <v>394.3520054806519</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18898,28 +18964,28 @@
         <v>0.09569999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3625317137909078</v>
+        <v>0.3597857115417367</v>
       </c>
       <c r="J8" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K8" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L8" t="n">
-        <v>0.12499429496158</v>
+        <v>0.1240919388560542</v>
       </c>
       <c r="M8" t="n">
-        <v>4.982821132277865</v>
+        <v>4.978126111526442</v>
       </c>
       <c r="N8" t="n">
-        <v>49.46223378029445</v>
+        <v>49.31449367359797</v>
       </c>
       <c r="O8" t="n">
-        <v>7.032939199246248</v>
+        <v>7.022427904478477</v>
       </c>
       <c r="P8" t="n">
-        <v>392.224787607822</v>
+        <v>392.2530206824933</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18976,28 +19042,28 @@
         <v>0.111</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2996395829270241</v>
+        <v>0.2969734484304238</v>
       </c>
       <c r="J9" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K9" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0820023233812367</v>
+        <v>0.08120416023308563</v>
       </c>
       <c r="M9" t="n">
-        <v>4.893485437820106</v>
+        <v>4.887936976449976</v>
       </c>
       <c r="N9" t="n">
-        <v>53.63519810423112</v>
+        <v>53.4674812751885</v>
       </c>
       <c r="O9" t="n">
-        <v>7.323605539912094</v>
+        <v>7.312146147006944</v>
       </c>
       <c r="P9" t="n">
-        <v>399.3249909027444</v>
+        <v>399.3524088183268</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19054,28 +19120,28 @@
         <v>0.1229</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2081079987053697</v>
+        <v>0.20817429732377</v>
       </c>
       <c r="J10" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K10" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03780384306462414</v>
+        <v>0.03812043005124044</v>
       </c>
       <c r="M10" t="n">
-        <v>5.367463640536346</v>
+        <v>5.346668695025324</v>
       </c>
       <c r="N10" t="n">
-        <v>58.62120665341251</v>
+        <v>58.39044360560411</v>
       </c>
       <c r="O10" t="n">
-        <v>7.65644869723637</v>
+        <v>7.641363988556239</v>
       </c>
       <c r="P10" t="n">
-        <v>403.619445974323</v>
+        <v>403.6187636942001</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19132,28 +19198,28 @@
         <v>0.1543</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07213756266910573</v>
+        <v>0.0733309865905028</v>
       </c>
       <c r="J11" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K11" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004891243306426207</v>
+        <v>0.005092542545626633</v>
       </c>
       <c r="M11" t="n">
-        <v>5.593613933440498</v>
+        <v>5.576234220964398</v>
       </c>
       <c r="N11" t="n">
-        <v>56.10226723450494</v>
+        <v>55.89268679953756</v>
       </c>
       <c r="O11" t="n">
-        <v>7.490144673803367</v>
+        <v>7.4761411703858</v>
       </c>
       <c r="P11" t="n">
-        <v>401.2927554576393</v>
+        <v>401.2804081663967</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19210,28 +19276,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06084657634669683</v>
+        <v>-0.06065847708599423</v>
       </c>
       <c r="J12" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K12" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00404226743443914</v>
+        <v>0.004049147518012775</v>
       </c>
       <c r="M12" t="n">
-        <v>4.628033393075108</v>
+        <v>4.610715324131237</v>
       </c>
       <c r="N12" t="n">
-        <v>48.36974085275782</v>
+        <v>48.18103390178467</v>
       </c>
       <c r="O12" t="n">
-        <v>6.954835789057698</v>
+        <v>6.941255931154295</v>
       </c>
       <c r="P12" t="n">
-        <v>401.1633067718053</v>
+        <v>401.1613626986941</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19288,28 +19354,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1236872366255037</v>
+        <v>-0.123642460483143</v>
       </c>
       <c r="J13" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K13" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02270099868437436</v>
+        <v>0.02286333024270504</v>
       </c>
       <c r="M13" t="n">
-        <v>3.92383475519931</v>
+        <v>3.908551299847747</v>
       </c>
       <c r="N13" t="n">
-        <v>34.85500832833137</v>
+        <v>34.71725473385042</v>
       </c>
       <c r="O13" t="n">
-        <v>5.9038130329755</v>
+        <v>5.892134989445712</v>
       </c>
       <c r="P13" t="n">
-        <v>399.2852203455681</v>
+        <v>399.2847571536142</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -19360,28 +19426,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.2028719877865657</v>
+        <v>-0.1986096101313218</v>
       </c>
       <c r="J14" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K14" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03357427033269911</v>
+        <v>0.03241358604066857</v>
       </c>
       <c r="M14" t="n">
-        <v>6.275958090809024</v>
+        <v>6.271577483223769</v>
       </c>
       <c r="N14" t="n">
-        <v>62.94639654421073</v>
+        <v>62.82108713138918</v>
       </c>
       <c r="O14" t="n">
-        <v>7.933876514303127</v>
+        <v>7.925975468760244</v>
       </c>
       <c r="P14" t="n">
-        <v>401.7250467061683</v>
+        <v>401.6812062952097</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -19438,28 +19504,28 @@
         <v>0.1911</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.208012722948</v>
+        <v>-0.2082558598303824</v>
       </c>
       <c r="J15" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K15" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06478237814693155</v>
+        <v>0.065414858968041</v>
       </c>
       <c r="M15" t="n">
-        <v>3.832111035909862</v>
+        <v>3.81840477071156</v>
       </c>
       <c r="N15" t="n">
-        <v>33.15209673375877</v>
+        <v>33.02196558898191</v>
       </c>
       <c r="O15" t="n">
-        <v>5.757785749205919</v>
+        <v>5.746474187619911</v>
       </c>
       <c r="P15" t="n">
-        <v>401.1640002449614</v>
+        <v>401.166503275657</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -19497,7 +19563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P299"/>
+  <dimension ref="A1:P300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41167,7 +41233,11 @@
           <t>2025-06-06 22:10:54+00:00</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr"/>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-35.27240432098244,174.08252640657545</t>
+        </is>
+      </c>
       <c r="C299" t="inlineStr">
         <is>
           <t>-35.27368306515936,174.08041309999817</t>
@@ -41234,6 +41304,88 @@
         </is>
       </c>
       <c r="P299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.27239173783066,174.0825779100206</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.27367509240414,174.080451176343</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-35.27439375676977,174.08062692450267</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-35.275062270278475,174.08099081547945</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-35.27561104383955,174.08151853131963</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>-35.27606196326791,174.08211524851765</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>-35.276526207123936,174.08276855766957</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>-35.276904117793585,174.0834943966795</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>-35.27720920920958,174.08424888149312</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>-35.27751350829803,174.08501352743622</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>-35.27779290753528,174.0858216260116</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>-35.27803427238052,174.08665088240014</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>-35.27815231663888,174.08752005667137</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>-35.27835703487597,174.08837812919464</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0066/nzd0066.xlsx
+++ b/data/nzd0066/nzd0066.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P300"/>
+  <dimension ref="A1:P303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15172,9 +15172,7 @@
           <t>2025-06-06 22:10:54+00:00</t>
         </is>
       </c>
-      <c r="B299" t="n">
-        <v>585.4027272727272</v>
-      </c>
+      <c r="B299" t="inlineStr"/>
       <c r="C299" t="n">
         <v>361.1222222222222</v>
       </c>
@@ -15226,9 +15224,7 @@
           <t>2025-06-22 22:11:31+00:00</t>
         </is>
       </c>
-      <c r="B300" t="n">
-        <v>590.2909090909092</v>
-      </c>
+      <c r="B300" t="inlineStr"/>
       <c r="C300" t="n">
         <v>364.6966666666667</v>
       </c>
@@ -15271,6 +15267,166 @@
       <c r="P300" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>369.6972727272728</v>
+      </c>
+      <c r="C301" t="n">
+        <v>362.7</v>
+      </c>
+      <c r="D301" t="n">
+        <v>368.58</v>
+      </c>
+      <c r="E301" t="n">
+        <v>371.8707692307692</v>
+      </c>
+      <c r="F301" t="n">
+        <v>394.87</v>
+      </c>
+      <c r="G301" t="n">
+        <v>393.76</v>
+      </c>
+      <c r="H301" t="n">
+        <v>390.82</v>
+      </c>
+      <c r="I301" t="n">
+        <v>405.0852631578948</v>
+      </c>
+      <c r="J301" t="n">
+        <v>406.62</v>
+      </c>
+      <c r="K301" t="n">
+        <v>399.73</v>
+      </c>
+      <c r="L301" t="n">
+        <v>395.03</v>
+      </c>
+      <c r="M301" t="n">
+        <v>394.7611764705882</v>
+      </c>
+      <c r="N301" t="n">
+        <v>397.1971428571428</v>
+      </c>
+      <c r="O301" t="n">
+        <v>395.0886206896552</v>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>360.7545454545455</v>
+      </c>
+      <c r="C302" t="n">
+        <v>365.5311111111111</v>
+      </c>
+      <c r="D302" t="n">
+        <v>364.595</v>
+      </c>
+      <c r="E302" t="n">
+        <v>372.6030769230769</v>
+      </c>
+      <c r="F302" t="n">
+        <v>389.085</v>
+      </c>
+      <c r="G302" t="n">
+        <v>393.54</v>
+      </c>
+      <c r="H302" t="n">
+        <v>397.365</v>
+      </c>
+      <c r="I302" t="n">
+        <v>405.75</v>
+      </c>
+      <c r="J302" t="n">
+        <v>409.1</v>
+      </c>
+      <c r="K302" t="n">
+        <v>400.59</v>
+      </c>
+      <c r="L302" t="n">
+        <v>398.9766666666666</v>
+      </c>
+      <c r="M302" t="n">
+        <v>394.5076470588235</v>
+      </c>
+      <c r="N302" t="n">
+        <v>398.9563492063492</v>
+      </c>
+      <c r="O302" t="n">
+        <v>395.9503448275862</v>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="n">
+        <v>355.0166666666667</v>
+      </c>
+      <c r="D303" t="n">
+        <v>350.005</v>
+      </c>
+      <c r="E303" t="n">
+        <v>354.4007692307692</v>
+      </c>
+      <c r="F303" t="n">
+        <v>369.385</v>
+      </c>
+      <c r="G303" t="n">
+        <v>372.6</v>
+      </c>
+      <c r="H303" t="n">
+        <v>374.105</v>
+      </c>
+      <c r="I303" t="n">
+        <v>386.58</v>
+      </c>
+      <c r="J303" t="n">
+        <v>399.57</v>
+      </c>
+      <c r="K303" t="n">
+        <v>392.43</v>
+      </c>
+      <c r="L303" t="n">
+        <v>394.34</v>
+      </c>
+      <c r="M303" t="n">
+        <v>394.8270588235294</v>
+      </c>
+      <c r="N303" t="n">
+        <v>403.5009523809524</v>
+      </c>
+      <c r="O303" t="n">
+        <v>397.2089655172414</v>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15285,7 +15441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18323,6 +18479,36 @@
       </c>
       <c r="B303" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -18496,28 +18682,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2449354860223067</v>
+        <v>-0.1776759487053774</v>
       </c>
       <c r="J2" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
         <v>196</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001126797527149836</v>
+        <v>0.0006973092769867462</v>
       </c>
       <c r="M2" t="n">
-        <v>26.02200940517193</v>
+        <v>21.95389302689079</v>
       </c>
       <c r="N2" t="n">
-        <v>2884.053104927159</v>
+        <v>2454.710982103421</v>
       </c>
       <c r="O2" t="n">
-        <v>53.70338075882336</v>
+        <v>49.5450399344215</v>
       </c>
       <c r="P2" t="n">
-        <v>378.9506644312104</v>
+        <v>383.323032968183</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18574,28 +18760,28 @@
         <v>0.108</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1960720210529999</v>
+        <v>-0.2033389903283589</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05590564735110592</v>
+        <v>0.06060353126347318</v>
       </c>
       <c r="M3" t="n">
-        <v>4.384422536511845</v>
+        <v>4.383523728734408</v>
       </c>
       <c r="N3" t="n">
-        <v>34.12416635872975</v>
+        <v>34.07746832255076</v>
       </c>
       <c r="O3" t="n">
-        <v>5.841589369232465</v>
+        <v>5.837590969102816</v>
       </c>
       <c r="P3" t="n">
-        <v>369.4476698875483</v>
+        <v>369.524324720178</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18652,28 +18838,28 @@
         <v>0.0898</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2781488499465282</v>
+        <v>0.2607105465197117</v>
       </c>
       <c r="J4" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09231229840114108</v>
+        <v>0.08107128013858678</v>
       </c>
       <c r="M4" t="n">
-        <v>4.554177862922554</v>
+        <v>4.584693944044939</v>
       </c>
       <c r="N4" t="n">
-        <v>40.32718813657321</v>
+        <v>41.30181809966854</v>
       </c>
       <c r="O4" t="n">
-        <v>6.350369133882944</v>
+        <v>6.426649056831137</v>
       </c>
       <c r="P4" t="n">
-        <v>361.7638331507003</v>
+        <v>361.947331809327</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18730,28 +18916,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2097810716080555</v>
+        <v>0.18673758803551</v>
       </c>
       <c r="J5" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06129928540658058</v>
+        <v>0.04775184107677999</v>
       </c>
       <c r="M5" t="n">
-        <v>4.346603725608145</v>
+        <v>4.411897260492438</v>
       </c>
       <c r="N5" t="n">
-        <v>35.64688156956841</v>
+        <v>37.23174423624587</v>
       </c>
       <c r="O5" t="n">
-        <v>5.970500947958087</v>
+        <v>6.101782054141713</v>
       </c>
       <c r="P5" t="n">
-        <v>371.0824417431912</v>
+        <v>371.3229262804097</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18808,28 +18994,28 @@
         <v>0.091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1339792256034694</v>
+        <v>0.1080364169282656</v>
       </c>
       <c r="J6" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02822379455024404</v>
+        <v>0.01743188360685999</v>
       </c>
       <c r="M6" t="n">
-        <v>4.3906051011235</v>
+        <v>4.48668345725399</v>
       </c>
       <c r="N6" t="n">
-        <v>33.90658255455995</v>
+        <v>36.50157596091581</v>
       </c>
       <c r="O6" t="n">
-        <v>5.822935905070564</v>
+        <v>6.041653412842862</v>
       </c>
       <c r="P6" t="n">
-        <v>392.7747322747916</v>
+        <v>393.0412442686164</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18886,28 +19072,28 @@
         <v>0.1211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1267800507792512</v>
+        <v>0.102569111820753</v>
       </c>
       <c r="J7" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K7" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0224565639461094</v>
+        <v>0.01420636245088369</v>
       </c>
       <c r="M7" t="n">
-        <v>4.37755273923873</v>
+        <v>4.459170498688482</v>
       </c>
       <c r="N7" t="n">
-        <v>38.53599353691575</v>
+        <v>40.65155439113941</v>
       </c>
       <c r="O7" t="n">
-        <v>6.207736587268806</v>
+        <v>6.375857149524244</v>
       </c>
       <c r="P7" t="n">
-        <v>394.3520054806519</v>
+        <v>394.6010898911238</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18964,28 +19150,28 @@
         <v>0.09569999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3597857115417367</v>
+        <v>0.327928769647256</v>
       </c>
       <c r="J8" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K8" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1240919388560542</v>
+        <v>0.1011721652137626</v>
       </c>
       <c r="M8" t="n">
-        <v>4.978126111526442</v>
+        <v>5.094881737189955</v>
       </c>
       <c r="N8" t="n">
-        <v>49.31449367359797</v>
+        <v>52.1738660500897</v>
       </c>
       <c r="O8" t="n">
-        <v>7.022427904478477</v>
+        <v>7.223147932175396</v>
       </c>
       <c r="P8" t="n">
-        <v>392.2530206824933</v>
+        <v>392.582800967765</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19042,28 +19228,28 @@
         <v>0.111</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2969734484304238</v>
+        <v>0.2789633983751426</v>
       </c>
       <c r="J9" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K9" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08120416023308563</v>
+        <v>0.0718960465299846</v>
       </c>
       <c r="M9" t="n">
-        <v>4.887936976449976</v>
+        <v>4.925402513936551</v>
       </c>
       <c r="N9" t="n">
-        <v>53.4674812751885</v>
+        <v>54.48809525772252</v>
       </c>
       <c r="O9" t="n">
-        <v>7.312146147006944</v>
+        <v>7.381605195194506</v>
       </c>
       <c r="P9" t="n">
-        <v>399.3524088183268</v>
+        <v>399.5389377968978</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19120,28 +19306,28 @@
         <v>0.1229</v>
       </c>
       <c r="I10" t="n">
-        <v>0.20817429732377</v>
+        <v>0.1993434786880574</v>
       </c>
       <c r="J10" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K10" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03812043005124044</v>
+        <v>0.03566802074626052</v>
       </c>
       <c r="M10" t="n">
-        <v>5.346668695025324</v>
+        <v>5.330671205464693</v>
       </c>
       <c r="N10" t="n">
-        <v>58.39044360560411</v>
+        <v>58.0728698841814</v>
       </c>
       <c r="O10" t="n">
-        <v>7.641363988556239</v>
+        <v>7.620555746412554</v>
       </c>
       <c r="P10" t="n">
-        <v>403.6187636942001</v>
+        <v>403.7102658312114</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19198,28 +19384,28 @@
         <v>0.1543</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0733309865905028</v>
+        <v>0.06086766138630088</v>
       </c>
       <c r="J11" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K11" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005092542545626633</v>
+        <v>0.003564956836760946</v>
       </c>
       <c r="M11" t="n">
-        <v>5.576234220964398</v>
+        <v>5.591567448272739</v>
       </c>
       <c r="N11" t="n">
-        <v>55.89268679953756</v>
+        <v>55.7513237282589</v>
       </c>
       <c r="O11" t="n">
-        <v>7.4761411703858</v>
+        <v>7.466680904408524</v>
       </c>
       <c r="P11" t="n">
-        <v>401.2804081663967</v>
+        <v>401.410222097237</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19276,28 +19462,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06065847708599423</v>
+        <v>-0.06838325140135869</v>
       </c>
       <c r="J12" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K12" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004049147518012775</v>
+        <v>0.005242396536498939</v>
       </c>
       <c r="M12" t="n">
-        <v>4.610715324131237</v>
+        <v>4.604756192064941</v>
       </c>
       <c r="N12" t="n">
-        <v>48.18103390178467</v>
+        <v>47.80602639673339</v>
       </c>
       <c r="O12" t="n">
-        <v>6.941255931154295</v>
+        <v>6.914190219883554</v>
       </c>
       <c r="P12" t="n">
-        <v>401.1613626986941</v>
+        <v>401.2417058909627</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19354,28 +19540,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.123642460483143</v>
+        <v>-0.1267471994744639</v>
       </c>
       <c r="J13" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K13" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02286333024270504</v>
+        <v>0.02454899290798818</v>
       </c>
       <c r="M13" t="n">
-        <v>3.908551299847747</v>
+        <v>3.878620204860185</v>
       </c>
       <c r="N13" t="n">
-        <v>34.71725473385042</v>
+        <v>34.33207732765273</v>
       </c>
       <c r="O13" t="n">
-        <v>5.892134989445712</v>
+        <v>5.859358098601991</v>
       </c>
       <c r="P13" t="n">
-        <v>399.2847571536142</v>
+        <v>399.3170741409563</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -19426,28 +19612,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.1986096101313218</v>
+        <v>-0.1910904090341793</v>
       </c>
       <c r="J14" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K14" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03241358604066857</v>
+        <v>0.0306826517570723</v>
       </c>
       <c r="M14" t="n">
-        <v>6.271577483223769</v>
+        <v>6.233813985052995</v>
       </c>
       <c r="N14" t="n">
-        <v>62.82108713138918</v>
+        <v>62.30143152830098</v>
       </c>
       <c r="O14" t="n">
-        <v>7.925975468760244</v>
+        <v>7.89312558675592</v>
       </c>
       <c r="P14" t="n">
-        <v>401.6812062952097</v>
+        <v>401.6033369610738</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -19504,28 +19690,28 @@
         <v>0.1911</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2082558598303824</v>
+        <v>-0.2075281443089208</v>
       </c>
       <c r="J15" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K15" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L15" t="n">
-        <v>0.065414858968041</v>
+        <v>0.06644528323202969</v>
       </c>
       <c r="M15" t="n">
-        <v>3.81840477071156</v>
+        <v>3.78240379813383</v>
       </c>
       <c r="N15" t="n">
-        <v>33.02196558898191</v>
+        <v>32.64658262655523</v>
       </c>
       <c r="O15" t="n">
-        <v>5.746474187619911</v>
+        <v>5.713718808845534</v>
       </c>
       <c r="P15" t="n">
-        <v>401.166503275657</v>
+        <v>401.1589477569918</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -19563,7 +19749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P300"/>
+  <dimension ref="A1:P303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41233,11 +41419,7 @@
           <t>2025-06-06 22:10:54+00:00</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>-35.27240432098244,174.08252640657545</t>
-        </is>
-      </c>
+      <c r="B299" t="inlineStr"/>
       <c r="C299" t="inlineStr">
         <is>
           <t>-35.27368306515936,174.08041309999817</t>
@@ -41315,11 +41497,7 @@
           <t>2025-06-22 22:11:31+00:00</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>-35.27239173783066,174.0825779100206</t>
-        </is>
-      </c>
+      <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr">
         <is>
           <t>-35.27367509240414,174.080451176343</t>
@@ -41388,6 +41566,248 @@
       <c r="P300" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.27295956812913,174.08025364860373</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.273679545946514,174.0804299070895</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-35.274383749562126,174.0806741321971</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-35.27507106206012,174.08096182327446</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-35.2756120762829,174.08151666189192</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>-35.2760950453022,174.08207774389</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>-35.27657710994229,174.08271969887306</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>-35.27689306212105,174.0835032047002</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>-35.277229101531454,174.08423691996015</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>-35.2775556666489,174.08499405964503</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>-35.2778341950619,174.08580544745442</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>-35.27804636517464,174.08664694578337</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>-35.278195292710116,174.0875086591973</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>-35.27836046246749,174.08837729957372</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.27298258668147,174.0801594238005</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.27367323118416,174.0804600651622</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.27439274138313,174.08063171446094</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-35.275068772108355,174.08096937473314</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-35.27564121131848,174.08146390753433</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>-35.27609649800605,174.0820760969795</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>-35.27653074126581,174.08276420560108</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>-35.27688804476029,174.08350720201534</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>-35.27720904748338,174.08424897874136</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>-35.277548415412774,174.08499740810652</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>-35.277800318117144,174.08581872216917</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>-35.278048573646764,174.08664622685026</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>-35.2781797940835,174.08751276951378</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>-35.278352841870294,174.0883791440778</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.273696683499935,174.08034806127498</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.274425662378846,174.08047641330614</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.27512569122344,174.08078167484925</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-35.275740426396446,174.0812842597385</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-35.27623476889971,174.08191934077544</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>-35.27669552888155,174.0826060347847</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>-35.27703273776588,174.08339192532773</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>-35.277286110008546,174.08420263992517</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>-35.27761721783569,174.0849656366345</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>-35.27784011780463,174.0858031266206</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>-35.27804579127932,174.0866471326059</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>-35.27813975608056,174.08752338779348</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>-35.27834171134613,174.08838183813077</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0066/nzd0066.xlsx
+++ b/data/nzd0066/nzd0066.xlsx
@@ -18673,13 +18673,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0516</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0605</v>
+        <v>0.0103</v>
       </c>
       <c r="I2" t="n">
         <v>-0.177658365836841</v>
@@ -18751,13 +18751,13 @@
         <v>0.07678435636334872</v>
       </c>
       <c r="F3" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0399</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.09</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0772</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.108</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2033638092862338</v>
@@ -18829,13 +18829,13 @@
         <v>0.1537165420218133</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0402</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0898</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>0.2607111177381664</v>
@@ -18907,13 +18907,13 @@
         <v>0.2306479179740109</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.061</v>
+        <v>0.0659</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>0.186721890845562</v>
@@ -18985,13 +18985,13 @@
         <v>0.3076600880941106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0709</v>
+        <v>0.066</v>
       </c>
       <c r="H6" t="n">
-        <v>0.091</v>
+        <v>0.0819</v>
       </c>
       <c r="I6" t="n">
         <v>0.108034173287584</v>
@@ -19063,13 +19063,13 @@
         <v>0.3843516922776507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.0941</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1211</v>
+        <v>0.1274</v>
       </c>
       <c r="I7" t="n">
         <v>0.102569111820753</v>
@@ -19141,13 +19141,13 @@
         <v>0.4613447459784996</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0815</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09569999999999999</v>
+        <v>0.1061</v>
       </c>
       <c r="I8" t="n">
         <v>0.3279231893446243</v>
@@ -19219,13 +19219,13 @@
         <v>0.5382056672684388</v>
       </c>
       <c r="F9" t="n">
-        <v>0.095</v>
+        <v>0.165</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0837</v>
+        <v>0.1245</v>
       </c>
       <c r="H9" t="n">
-        <v>0.111</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.2789763325255951</v>
@@ -19297,13 +19297,13 @@
         <v>0.6152177161411814</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.155</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0868</v>
+        <v>0.1195</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1229</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>0.1993434786880574</v>
@@ -19375,13 +19375,13 @@
         <v>0.6920632539063648</v>
       </c>
       <c r="F11" t="n">
-        <v>0.125</v>
+        <v>0.195</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1054</v>
+        <v>0.1314</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1543</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>0.06086766138630106</v>
@@ -19453,10 +19453,10 @@
         <v>0.7690357454383671</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1179</v>
+        <v>0.1505</v>
       </c>
       <c r="H12" t="n">
         <v>0.2</v>
@@ -19531,10 +19531,10 @@
         <v>0.8460477364478345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1396</v>
+        <v>0.156</v>
       </c>
       <c r="H13" t="n">
         <v>0.2</v>
@@ -19608,9 +19608,15 @@
       <c r="E14" t="n">
         <v>0.92298986870759</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1345</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I14" t="n">
         <v>-0.1910812433078393</v>
       </c>
@@ -19681,13 +19687,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.145</v>
+        <v>0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1165</v>
+        <v>0.1748</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1911</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
         <v>-0.207498033656613</v>
